--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,202 +55,187 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -611,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +689,13 @@
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1783783783783784</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8560371517027864</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +815,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +841,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +867,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +893,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7050847457627119</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.6956521739130435</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -960,13 +945,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -986,13 +971,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.684931506849315</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1012,13 +997,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6717495987158909</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1038,13 +1023,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6581059390048154</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>426</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1064,13 +1049,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1090,13 +1075,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6457142857142857</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1116,13 +1101,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6444444444444445</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1142,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L18">
         <v>43</v>
@@ -1160,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1168,13 +1153,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5918367346938775</v>
+        <v>0.59375</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1186,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1194,13 +1179,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1246,13 +1231,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5352112676056338</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1272,13 +1257,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5338345864661654</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L23">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1298,13 +1283,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1324,7 +1309,7 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5192307692307693</v>
+        <v>0.54</v>
       </c>
       <c r="L25">
         <v>54</v>
@@ -1342,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1350,13 +1335,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1376,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1402,13 +1387,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1428,25 +1413,25 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4698795180722892</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>39</v>
-      </c>
-      <c r="M29">
-        <v>39</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1454,13 +1439,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4578313253012048</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L30">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="M30">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1480,13 +1465,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4567901234567901</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1506,13 +1491,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1532,13 +1517,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4313725490196079</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L33">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1550,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>232</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1558,13 +1543,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4046692607003891</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L34">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="M34">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1576,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1584,13 +1569,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3684210526315789</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1602,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>84</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1610,25 +1595,25 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3564356435643564</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1636,13 +1621,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.354066985645933</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L37">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1654,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1662,25 +1647,25 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3534246575342466</v>
+        <v>0.3149946062567422</v>
       </c>
       <c r="L38">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="M38">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>472</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1688,13 +1673,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3381294964028777</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1706,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>92</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1714,13 +1699,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1732,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1740,13 +1725,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3121636167922497</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L41">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1758,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>639</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1766,13 +1751,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2972972972972973</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1784,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1792,25 +1777,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2882882882882883</v>
+        <v>0.2644415917843389</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>79</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1818,13 +1803,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2821192052980133</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L44">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1836,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>542</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1844,25 +1829,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2781456953642384</v>
+        <v>0.1989100817438692</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1870,25 +1855,25 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2758620689655172</v>
+        <v>0.195</v>
       </c>
       <c r="L46">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1896,25 +1881,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2751677852348993</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>108</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1922,25 +1907,25 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.245186136071887</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L48">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>588</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1948,13 +1933,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2164948453608248</v>
+        <v>0.1820175438596491</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1966,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>228</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1974,25 +1959,25 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2146341463414634</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L50">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>322</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2000,25 +1985,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2109704641350211</v>
+        <v>0.1774580335731415</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>187</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2026,13 +2011,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1985645933014354</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L52">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M52">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="N52">
         <v>0.99</v>
@@ -2044,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2052,13 +2037,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1951219512195122</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2070,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>132</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2078,13 +2063,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1907894736842105</v>
+        <v>0.1680672268907563</v>
       </c>
       <c r="L54">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2096,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>369</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2104,13 +2089,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1863636363636364</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L55">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2122,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>358</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2130,25 +2115,25 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1721311475409836</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="L56">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2156,13 +2141,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1623616236162362</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L57">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2174,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2182,25 +2167,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1502732240437158</v>
+        <v>0.1142322097378277</v>
       </c>
       <c r="L58">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="M58">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>311</v>
+        <v>946</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2208,25 +2193,25 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1492537313432836</v>
+        <v>0.1138328530259366</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>171</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2234,25 +2219,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.125</v>
+        <v>0.09242144177449169</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>217</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2260,13 +2245,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1194244604316547</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L61">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>0.97</v>
@@ -2278,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>612</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2286,25 +2271,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1123595505617977</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L62">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="M62">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>948</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2312,25 +2297,25 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1111111111111111</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>240</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2338,155 +2323,25 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1068702290076336</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="L64">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M64">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65">
-        <v>0.07785888077858881</v>
-      </c>
-      <c r="L65">
-        <v>32</v>
-      </c>
-      <c r="M65">
-        <v>35</v>
-      </c>
-      <c r="N65">
-        <v>0.91</v>
-      </c>
-      <c r="O65">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K66">
-        <v>0.07285342584562012</v>
-      </c>
-      <c r="L66">
-        <v>84</v>
-      </c>
-      <c r="M66">
-        <v>88</v>
-      </c>
-      <c r="N66">
-        <v>0.95</v>
-      </c>
-      <c r="O66">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K67">
-        <v>0.07115384615384615</v>
-      </c>
-      <c r="L67">
-        <v>37</v>
-      </c>
-      <c r="M67">
-        <v>39</v>
-      </c>
-      <c r="N67">
-        <v>0.95</v>
-      </c>
-      <c r="O67">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="L68">
-        <v>35</v>
-      </c>
-      <c r="M68">
-        <v>38</v>
-      </c>
-      <c r="N68">
-        <v>0.92</v>
-      </c>
-      <c r="O68">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K69">
-        <v>0.03841059602649007</v>
-      </c>
-      <c r="L69">
-        <v>29</v>
-      </c>
-      <c r="M69">
-        <v>41</v>
-      </c>
-      <c r="N69">
-        <v>0.71</v>
-      </c>
-      <c r="O69">
-        <v>0.29</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>726</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
